--- a/Thesis-codes/final-results.xlsx
+++ b/Thesis-codes/final-results.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE74D09-9BDE-4AEF-8063-59053E7A4C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE6923-BB06-46AC-BE7C-B526917A3086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13354" yWindow="463" windowWidth="18926" windowHeight="16980" activeTab="2" xr2:uid="{21F8934E-E76A-4432-88E3-6A5BDDF02BEF}"/>
+    <workbookView xWindow="771" yWindow="806" windowWidth="19389" windowHeight="12403" tabRatio="743" firstSheet="1" activeTab="2" xr2:uid="{21F8934E-E76A-4432-88E3-6A5BDDF02BEF}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline-nh3-jan-1-input" sheetId="1" r:id="rId1"/>
     <sheet name="baseline-nh3-oct-1-input" sheetId="4" r:id="rId2"/>
     <sheet name="baseline-colour-jan-1-input" sheetId="2" r:id="rId3"/>
-    <sheet name="proposed-nh3" sheetId="3" r:id="rId4"/>
-    <sheet name="baseline-colour" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="proposed-nh3" sheetId="3" r:id="rId5"/>
+    <sheet name="baseline-colour" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'baseline-colour-jan-1-input'!$A$1:$F$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'baseline-colour-jan-1-input'!$A$1:$H$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'baseline-nh3-jan-1-input'!$A$1:$E$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'baseline-nh3-oct-1-input'!$A$1:$E$42</definedName>
   </definedNames>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="53">
   <si>
     <t>test_loss_mean</t>
   </si>
@@ -173,27 +174,6 @@
     <t>RF-or</t>
   </si>
   <si>
-    <t>LSTM-3-ew2</t>
-  </si>
-  <si>
-    <t>LSTM-3-ew3</t>
-  </si>
-  <si>
-    <t>LSTM-3-ew4</t>
-  </si>
-  <si>
-    <t>LSTM-3-obs</t>
-  </si>
-  <si>
-    <t>LSTM-3-sg5</t>
-  </si>
-  <si>
-    <t>LSTM-3-sg7</t>
-  </si>
-  <si>
-    <t>LSTM-3-sg9</t>
-  </si>
-  <si>
     <t>1010-1016</t>
   </si>
   <si>
@@ -212,27 +192,6 @@
     <t>valid</t>
   </si>
   <si>
-    <t>CNN-ew2</t>
-  </si>
-  <si>
-    <t>CNN-ew3</t>
-  </si>
-  <si>
-    <t>CNN-obs</t>
-  </si>
-  <si>
-    <t>CNN-sg7</t>
-  </si>
-  <si>
-    <t>CNN-sg9</t>
-  </si>
-  <si>
-    <t>CNN-sg5</t>
-  </si>
-  <si>
-    <t>CNN-ew4</t>
-  </si>
-  <si>
     <t>valid_loss_mean</t>
   </si>
   <si>
@@ -240,6 +199,12 @@
   </si>
   <si>
     <t>valid std</t>
+  </si>
+  <si>
+    <t>test loss max</t>
+  </si>
+  <si>
+    <t>test loss min</t>
   </si>
 </sst>
 </file>
@@ -277,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,12 +264,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,9 +340,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -712,42 +668,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8A5038-15BF-46BC-933C-2751D3BD79BA}">
-  <dimension ref="A1:F41"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="1"/>
+    <col min="3" max="3" width="18.61328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.15234375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.07421875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.15234375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.07421875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -766,8 +733,14 @@
       <c r="F2" s="2">
         <v>4.58E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="1">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -786,8 +759,14 @@
       <c r="F3" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="1">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -806,8 +785,14 @@
       <c r="F4" s="2">
         <v>1.12E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -826,8 +811,14 @@
       <c r="F5" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -846,8 +837,14 @@
       <c r="F6" s="4">
         <v>2.9600000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="3">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -866,8 +863,14 @@
       <c r="F7" s="2">
         <v>3.0700000000000002E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -886,8 +889,14 @@
       <c r="F8" s="2">
         <v>5.57E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="1">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -906,8 +915,14 @@
       <c r="F9" s="2">
         <v>1.37E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -926,8 +941,14 @@
       <c r="F10" s="2">
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -946,8 +967,14 @@
       <c r="F11" s="6">
         <v>7.9000000000000008E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="5">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -966,8 +993,14 @@
       <c r="F12" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12" s="1">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -986,8 +1019,14 @@
       <c r="F13" s="2">
         <v>2.69E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1006,8 +1045,14 @@
       <c r="F14" s="2">
         <v>5.3199999999999997E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1026,8 +1071,14 @@
       <c r="F15" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15" s="1">
+        <v>4.07E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4.02E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1046,8 +1097,14 @@
       <c r="F16" s="8">
         <v>2.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16" s="7">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4.0399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1066,8 +1123,14 @@
       <c r="F17" s="2">
         <v>3.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1086,8 +1149,14 @@
       <c r="F18" s="2">
         <v>3.3599999999999998E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18" s="1">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4.1300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1106,8 +1175,14 @@
       <c r="F19" s="2">
         <v>5.6599999999999998E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19" s="1">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4.1099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1126,8 +1201,14 @@
       <c r="F20" s="2">
         <v>6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1146,8 +1227,14 @@
       <c r="F21" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21" s="1">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1166,8 +1253,14 @@
       <c r="F22" s="2">
         <v>4.6399999999999997E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22" s="1">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1186,8 +1279,14 @@
       <c r="F23" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1206,8 +1305,14 @@
       <c r="F24" s="2">
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1226,8 +1331,14 @@
       <c r="F25" s="2">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25" s="1">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1246,8 +1357,14 @@
       <c r="F26" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26" s="1">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1266,8 +1383,14 @@
       <c r="F27" s="2">
         <v>6.5799999999999997E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1286,8 +1409,14 @@
       <c r="F28" s="2">
         <v>3.3500000000000002E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1306,8 +1435,14 @@
       <c r="F29" s="2">
         <v>2.9899999999999999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G29" s="1">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5.6800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1326,8 +1461,14 @@
       <c r="F30" s="2">
         <v>4.7699999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G30" s="1">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1346,8 +1487,14 @@
       <c r="F31" s="2">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G31" s="1">
+        <v>5.74E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1366,8 +1513,14 @@
       <c r="F32" s="2">
         <v>5.9200000000000003E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G32" s="1">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1386,8 +1539,14 @@
       <c r="F33" s="2">
         <v>4.1999999999999997E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G33" s="1">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5.7200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1400,8 +1559,14 @@
       <c r="D34" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G34">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.11269999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1580,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1429,7 +1594,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1608,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1457,7 +1622,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1471,7 +1636,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1485,7 +1650,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1499,8 +1664,20 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <autoFilter ref="A1:E44" xr:uid="{AE8A5038-15BF-46BC-933C-2751D3BD79BA}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="DNN-obs"/>
+        <filter val="GRU-obs"/>
+        <filter val="LSTM-obs"/>
+        <filter val="RF-obs"/>
+        <filter val="RNN-obs"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E44">
       <sortCondition ref="C1:C44"/>
     </sortState>
@@ -1528,24 +1705,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -1562,7 +1739,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -1579,7 +1756,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1596,7 +1773,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1613,7 +1790,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1630,7 +1807,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1647,7 +1824,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1664,7 +1841,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1681,7 +1858,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1698,7 +1875,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -1715,7 +1892,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -1732,7 +1909,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -1749,7 +1926,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -1766,7 +1943,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -1783,7 +1960,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
@@ -1800,7 +1977,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -1817,7 +1994,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
@@ -1834,7 +2011,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -1851,7 +2028,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -1868,7 +2045,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -1885,7 +2062,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -1902,7 +2079,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -1919,7 +2096,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -1936,7 +2113,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -1953,7 +2130,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
@@ -1970,7 +2147,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>32</v>
@@ -1987,7 +2164,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>30</v>
@@ -2004,7 +2181,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
@@ -2021,7 +2198,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
@@ -2038,7 +2215,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>26</v>
@@ -2055,7 +2232,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>27</v>
@@ -2072,7 +2249,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
@@ -2089,7 +2266,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>37</v>
@@ -2103,7 +2280,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
@@ -2117,7 +2294,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
@@ -2131,7 +2308,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
@@ -2145,7 +2322,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
@@ -2159,7 +2336,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>34</v>
@@ -2173,7 +2350,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
@@ -2187,7 +2364,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -2214,10 +2391,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F1D108-8973-4557-9530-E4280FE896BF}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2226,1072 +2403,988 @@
     <col min="2" max="2" width="12.53515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.921875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="1"/>
+    <col min="5" max="6" width="9.23046875" style="1"/>
+    <col min="7" max="7" width="20.4609375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.69140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>48</v>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.57520000000000004</v>
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.75149999999999995</v>
       </c>
       <c r="E2" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F2" s="1">
-        <v>1.47E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>42</v>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>1.32E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.65849999999999997</v>
+        <v>0.80110000000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="F3" s="1">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>43</v>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>1.34E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.64790000000000003</v>
+        <v>1.38E-2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.75470000000000004</v>
       </c>
       <c r="E4" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="F4" s="1">
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>44</v>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>1.35E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.65339999999999998</v>
+        <v>0.80679999999999996</v>
       </c>
       <c r="E5" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F5" s="1">
-        <v>1.9599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>1.35E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.75249999999999995</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="E6" s="1">
         <v>1E-4</v>
       </c>
       <c r="F6" s="1">
-        <v>4.07E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.41E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>1.3599999999999999E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="D7" s="19">
-        <v>0.75149999999999995</v>
+        <v>0.76939999999999997</v>
       </c>
       <c r="E7" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.43E-2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.7137</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.44E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.47E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.47E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="E11" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F7" s="1">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.38E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.80110000000000003</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.3100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.38E-2</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0.75470000000000004</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.80679999999999996</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="F11" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="E12" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F10" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.04E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="F12" s="1">
+        <v>1.24E-2</v>
+      </c>
+      <c r="G12" s="1">
         <v>1.43E-2</v>
       </c>
-      <c r="D12" s="20">
-        <v>0.76939999999999997</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H12" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>47</v>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>1.43E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.61519999999999997</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="E13" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F13" s="1">
-        <v>1.14E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>7.6E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>16</v>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="2">
-        <v>1.43E-2</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0.7137</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.9083</v>
       </c>
       <c r="E14" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F14" s="1">
-        <v>2.1600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>46</v>
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="2">
-        <v>1.44E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.62849999999999995</v>
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.75749999999999995</v>
       </c>
       <c r="E15" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="F15" s="1">
-        <v>1.43E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2.53E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
-        <v>1.44E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.84919999999999995</v>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.88460000000000005</v>
       </c>
       <c r="E16" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="F16" s="1">
-        <v>3.7100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>1.47E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.84760000000000002</v>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.87549999999999994</v>
       </c>
       <c r="E17" s="1">
         <v>1E-4</v>
       </c>
       <c r="F17" s="1">
-        <v>2.3800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>1.47E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.83630000000000004</v>
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.77910000000000001</v>
       </c>
       <c r="E18" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.52E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.0623</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="E21" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F18" s="1">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.24E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.49E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.99270000000000003</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.9083</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.4702</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.4823</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.78E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.4574</v>
+      </c>
+      <c r="E25" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F21" s="1">
-        <v>2.0199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="F25" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.4632000000000001</v>
+      </c>
+      <c r="E26" s="1">
         <v>1E-4</v>
       </c>
-      <c r="F22" s="1">
-        <v>2.53E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.88460000000000005</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="F26" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G26" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.87549999999999994</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2.4899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.77910000000000001</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.52E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H26" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
-        <v>1.6E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>1.0623</v>
+        <v>1.4716</v>
       </c>
       <c r="E27" s="1">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>3.9399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1.77E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>6</v>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>1.61E-2</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.74390000000000001</v>
+        <v>1.83E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.4945999999999999</v>
       </c>
       <c r="E28" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>3.6400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1.23E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.83E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>5</v>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>1.6799999999999999E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>0.83550000000000002</v>
+        <v>1.5397000000000001</v>
       </c>
       <c r="E29" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F29" s="1">
-        <v>2.87E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.4702</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>63.684699999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="G30">
+        <v>62.623199999999997</v>
+      </c>
+      <c r="H30">
+        <v>64.1755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.4823</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>73.826300000000003</v>
+      </c>
+      <c r="E31">
+        <v>1.0846</v>
+      </c>
+      <c r="G31">
+        <v>71.398399999999995</v>
+      </c>
+      <c r="H31">
+        <v>74.498500000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.4574</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>75.197400000000002</v>
+      </c>
+      <c r="E32">
+        <v>1.2881</v>
+      </c>
+      <c r="G32">
+        <v>72.601200000000006</v>
+      </c>
+      <c r="H32">
+        <v>75.995699999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.4632000000000001</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>77.882900000000006</v>
+      </c>
+      <c r="E33">
+        <v>1.2806999999999999</v>
+      </c>
+      <c r="G33">
+        <v>76.1126</v>
+      </c>
+      <c r="H33">
+        <v>78.676699999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1.4716</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1.77E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>78.529600000000002</v>
+      </c>
+      <c r="E34">
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34">
+        <v>76.367800000000003</v>
+      </c>
+      <c r="H34">
+        <v>79.137200000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2">
-        <v>1.83E-2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1.4945999999999999</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1.23E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>78.875299999999996</v>
+      </c>
+      <c r="E35">
+        <v>1.121</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35">
+        <v>77.127099999999999</v>
+      </c>
+      <c r="H35">
+        <v>79.570099999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.5397000000000001</v>
-      </c>
-      <c r="E36" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2.7300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5.7675000000000001</v>
-      </c>
-      <c r="E37" s="1">
-        <v>4.53E-2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>6.0439999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5.0200000000000002E-2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>5.8631000000000002</v>
-      </c>
-      <c r="E38" s="1">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="F38" s="1">
-        <v>6.1872999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="2">
-        <v>8.1699999999999995E-2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>10.1837</v>
-      </c>
-      <c r="E39" s="1">
-        <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="F39" s="1">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="1">
-        <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="D40" s="1">
-        <v>10.138299999999999</v>
-      </c>
-      <c r="E40" s="1">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="F40" s="1">
-        <v>6.1365999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.1138</v>
-      </c>
-      <c r="D41" s="1">
-        <v>14.3329</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.11409999999999999</v>
-      </c>
-      <c r="D42" s="1">
-        <v>14.5426</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0.12529999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.11509999999999999</v>
-      </c>
-      <c r="D43" s="1">
-        <v>14.6457</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F43" s="1">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="2">
-        <v>63.684699999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="2">
-        <v>73.826300000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="2">
-        <v>75.197400000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="2">
-        <v>77.882900000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="2">
-        <v>78.529600000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="2">
-        <v>78.875299999999996</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="2">
         <v>81.069599999999994</v>
       </c>
-      <c r="F50" s="2">
-        <v>1.5800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F51" s="2">
-        <v>1.5800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F52" s="2">
-        <v>1.5900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F53" s="2">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F54" s="2">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F55" s="2">
-        <v>1.61E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F56" s="2">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F57" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F58" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F59" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F60" s="2">
-        <v>1.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F61" s="2">
-        <v>1.8200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F62" s="2">
-        <v>1.83E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F63" s="2">
-        <v>1.8599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F64" s="2">
-        <v>63.684699999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F65" s="2">
-        <v>73.826300000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F66" s="2">
-        <v>75.197400000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F67" s="2">
-        <v>77.882900000000006</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="2">
-        <v>78.529600000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="2">
-        <v>78.875299999999996</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F70" s="2">
-        <v>81.069599999999994</v>
-      </c>
-    </row>
+      <c r="E36">
+        <v>1.7402</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36">
+        <v>77.766599999999997</v>
+      </c>
+      <c r="H36">
+        <v>82.148200000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="68" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="69" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="70" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <autoFilter ref="A1:F70" xr:uid="{D5F1D108-8973-4557-9530-E4280FE896BF}">
+  <autoFilter ref="A1:H70" xr:uid="{D5F1D108-8973-4557-9530-E4280FE896BF}">
     <filterColumn colId="1">
       <filters>
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
         <filter val="DNN-obs"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
         <filter val="GRU-obs"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
-        <filter val="LSTM-ew2"/>
-        <filter val="LSTM-ew3"/>
-        <filter val="LSTM-ew4"/>
         <filter val="LSTM-obs"/>
-        <filter val="LSTM-sg5"/>
-        <filter val="LSTM-sg7"/>
-        <filter val="LSTM-sg9"/>
-        <filter val="RF-ew2"/>
-        <filter val="RF-ew3"/>
-        <filter val="RF-ew4"/>
         <filter val="RF-obs"/>
-        <filter val="RF-sg5"/>
-        <filter val="RF-sg7"/>
-        <filter val="RF-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
         <filter val="RNN-obs"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:F50">
-      <sortCondition ref="C1:C70"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FAAF3-E3F0-4B62-82D2-EF571CF8DE7C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C83B01-18C3-42D4-A5E0-1C0F6605C708}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3305,7 +3398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E0F554-0E0F-4F3D-B208-27C9AB000AE0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3319,7 +3412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDB1B09-2E82-4BFD-B19E-C896020A0E0B}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Thesis-codes/final-results.xlsx
+++ b/Thesis-codes/final-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE6923-BB06-46AC-BE7C-B526917A3086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5A271-9163-45DA-800D-62CC1E1E5939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="771" yWindow="806" windowWidth="19389" windowHeight="12403" tabRatio="743" firstSheet="1" activeTab="2" xr2:uid="{21F8934E-E76A-4432-88E3-6A5BDDF02BEF}"/>
+    <workbookView xWindow="771" yWindow="806" windowWidth="19389" windowHeight="12403" tabRatio="743" activeTab="1" xr2:uid="{21F8934E-E76A-4432-88E3-6A5BDDF02BEF}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline-nh3-jan-1-input" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'baseline-colour-jan-1-input'!$A$1:$H$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'baseline-nh3-jan-1-input'!$A$1:$E$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'baseline-colour-jan-1-input'!$A$1:$I$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'baseline-nh3-jan-1-input'!$A$1:$H$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'baseline-nh3-oct-1-input'!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -668,11 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8A5038-15BF-46BC-933C-2751D3BD79BA}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -714,394 +713,394 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.0795999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.12E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0969</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.1218999999999999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.1803999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="H5" s="3">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="D2" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.2507999999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4.58E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.85E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.2644</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="G3" s="1">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.1891</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="H6" s="1">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="H3" s="1">
-        <v>3.8300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.0795999999999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.12E-2</v>
-      </c>
-      <c r="G4" s="1">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="H4" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.2345999999999999</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3.85E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.1803999999999999</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3.8300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.8899999999999997E-2</v>
-      </c>
       <c r="D7" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7" s="1">
-        <v>1.1891</v>
+        <v>1.2199</v>
       </c>
       <c r="F7" s="2">
-        <v>3.0700000000000002E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="G7" s="1">
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>3.8600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>3.9100000000000003E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E8" s="1">
-        <v>1.2390000000000001</v>
+        <v>1.2345999999999999</v>
       </c>
       <c r="F8" s="2">
-        <v>5.57E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>3.9600000000000003E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>3.8800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="D9" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E9" s="1">
-        <v>1.2199</v>
+        <v>1.2365999999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>1.37E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>3.9399999999999998E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+        <v>4.02E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E10" s="1">
-        <v>1.0969</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="F10" s="2">
-        <v>1.5900000000000001E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>0.04</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>3.8699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3.95E-2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1.1218999999999999</v>
-      </c>
-      <c r="F11" s="6">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="G11" s="5">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>3.8399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.2507999999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4.58E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>3.9600000000000003E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="D12" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E12" s="1">
+        <v>1.2612000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.69E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.85E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.2644</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.3076000000000001</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4.0399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E15" s="1">
         <v>1.3097000000000001</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F15" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G15" s="1">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H15" s="1">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.2612000000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2.69E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3.9399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.3993</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.2365999999999999</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4.07E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4.02E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D16" s="8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="D16" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E16" s="7">
-        <v>1.3076000000000001</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4.0399999999999998E-2</v>
+      <c r="E16" s="1">
+        <v>1.3637999999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.0800000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1109,28 +1108,28 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>4.1399999999999999E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E17" s="1">
-        <v>1.3637999999999999</v>
+        <v>1.3993</v>
       </c>
       <c r="F17" s="2">
-        <v>3.5900000000000001E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="G17" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>4.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>4.1300000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1182,108 +1181,108 @@
         <v>4.1099999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.5992</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.6041000000000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C22" s="2">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D22" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E22" s="1">
         <v>1.6267</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F22" s="2">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H22" s="1">
         <v>4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="D21" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.5992</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4.2700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>1.6345000000000001</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.6041000000000001</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>4.3099999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -1312,7 +1311,7 @@
         <v>4.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1343,184 +1342,184 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
-        <v>5.6099999999999997E-2</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E26" s="1">
-        <v>3.2383000000000002</v>
+        <v>3.1677</v>
       </c>
       <c r="F26" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="G26" s="1">
-        <v>5.6599999999999998E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H26" s="1">
-        <v>5.5199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+        <v>5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.1972</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.2014</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C29" s="2">
         <v>5.62E-2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D29" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E29" s="1">
         <v>3.2170000000000001</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="2">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G29" s="1">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H29" s="1">
         <v>5.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5.6300000000000003E-2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3.1677</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="H28" s="1">
-        <v>5.5800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3.2317</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="G29" s="1">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2">
         <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="H29" s="1">
-        <v>5.6800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D30" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E30" s="1">
-        <v>3.2014</v>
+        <v>3.2187999999999999</v>
       </c>
       <c r="F30" s="2">
-        <v>4.7699999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="G30" s="1">
-        <v>5.7200000000000001E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="H30" s="1">
         <v>5.6899999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.2317</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G31" s="1">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="D31" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E31" s="1">
-        <v>3.2187999999999999</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="G31" s="1">
-        <v>5.74E-2</v>
-      </c>
       <c r="H31" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+        <v>5.6800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E32" s="1">
-        <v>3.1972</v>
+        <v>3.2383000000000002</v>
       </c>
       <c r="F32" s="2">
-        <v>5.9200000000000003E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G32" s="1">
-        <v>5.7599999999999998E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="H32" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1566,7 +1565,7 @@
         <v>0.11269999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1650,7 +1649,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1664,22 +1663,10 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <autoFilter ref="A1:E44" xr:uid="{AE8A5038-15BF-46BC-933C-2751D3BD79BA}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="DNN-obs"/>
-        <filter val="GRU-obs"/>
-        <filter val="LSTM-obs"/>
-        <filter val="RF-obs"/>
-        <filter val="RNN-obs"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E44">
-      <sortCondition ref="C1:C44"/>
+  <autoFilter ref="A1:H44" xr:uid="{AE8A5038-15BF-46BC-933C-2751D3BD79BA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H44">
+      <sortCondition ref="E1:E44"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1688,10 +1675,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A9EE11-47F5-4033-BB83-A58517C07378}">
-  <dimension ref="A1:E41"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1788,7 +1776,7 @@
         <v>1.2345999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1805,7 +1793,7 @@
         <v>1.2199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1822,7 +1810,7 @@
         <v>1.2390000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1839,7 +1827,7 @@
         <v>1.1891</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1890,7 +1878,7 @@
         <v>1.2612000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,7 +1895,7 @@
         <v>1.2644</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1941,7 +1929,7 @@
         <v>1.1803999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1975,7 +1963,7 @@
         <v>1.3076000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1992,7 +1980,7 @@
         <v>1.3637999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2009,7 +1997,7 @@
         <v>1.5992</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -2026,7 +2014,7 @@
         <v>1.5425</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -2043,7 +2031,7 @@
         <v>1.6041000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2060,7 +2048,7 @@
         <v>1.5087999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -2077,7 +2065,7 @@
         <v>1.6345000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2094,7 +2082,7 @@
         <v>1.6267</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2111,7 +2099,7 @@
         <v>1.7045999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2128,7 +2116,7 @@
         <v>1.6734</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -2145,7 +2133,7 @@
         <v>3.2317</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -2162,7 +2150,7 @@
         <v>3.1972</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2179,7 +2167,7 @@
         <v>3.2014</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -2196,7 +2184,7 @@
         <v>3.1677</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -2213,7 +2201,7 @@
         <v>3.2187999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2230,7 +2218,7 @@
         <v>3.2383000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,7 +2235,7 @@
         <v>3.2170000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -2264,7 +2252,7 @@
         <v>3.2484000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -2278,7 +2266,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -2292,7 +2280,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2306,7 +2294,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -2320,7 +2308,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -2334,7 +2322,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2348,7 +2336,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,7 +2350,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2376,8 +2364,21 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <autoFilter ref="A1:E42" xr:uid="{C7A9EE11-47F5-4033-BB83-A58517C07378}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="LSTM-ew2"/>
+        <filter val="LSTM-ew3"/>
+        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-obs"/>
+        <filter val="LSTM-or"/>
+        <filter val="LSTM-sg5"/>
+        <filter val="LSTM-sg7"/>
+        <filter val="LSTM-sg9"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E42">
       <sortCondition ref="C1:C42"/>
     </sortState>
@@ -2390,981 +2391,1064 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F1D108-8973-4557-9530-E4280FE896BF}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="1"/>
-    <col min="2" max="2" width="12.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.921875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.23046875" style="1"/>
-    <col min="7" max="7" width="20.4609375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.69140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="2" width="9.23046875" style="1"/>
+    <col min="3" max="3" width="12.53515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.921875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.23046875" style="1"/>
+    <col min="8" max="8" width="20.4609375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.69140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.43E-2</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.7137</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D4" s="2">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="D2" s="18">
+      <c r="E4" s="18">
         <v>0.75149999999999995</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F4" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G4" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H4" s="1">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I4" s="1">
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.53E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.43E-2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.52E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D9" s="2">
         <v>1.38E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E9" s="2">
         <v>0.80110000000000003</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F9" s="1">
         <v>1E-4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G9" s="1">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H9" s="1">
         <v>1.37E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I9" s="1">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.38E-2</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0.75470000000000004</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F12" s="1">
         <v>1E-4</v>
       </c>
-      <c r="F4" s="1">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1.37E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.3899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="G12" s="1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.80679999999999996</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.47E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="F14" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F5" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.37E-2</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G14" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.47E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
         <v>1.44E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="E16" s="2">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="H16" s="1">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="I16" s="1">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="F17" s="1">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.04E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.41E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="G17" s="1">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.9083</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.24E-2</v>
+      </c>
+      <c r="H20" s="1">
         <v>1.43E-2</v>
       </c>
-      <c r="D7" s="19">
-        <v>0.76939999999999997</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="I20" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.49E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.0623</v>
+      </c>
+      <c r="F22" s="1">
         <v>1E-4</v>
       </c>
-      <c r="F7" s="1">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.38E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.49E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.43E-2</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0.7137</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.44E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.84919999999999995</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="G22" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.4574</v>
+      </c>
+      <c r="F23" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F9" s="1">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.46E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.47E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.84760000000000002</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.47E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.83630000000000004</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.46E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.49E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.24E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1.43E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.49E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.99270000000000003</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>7.6E-3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1.46E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1.5299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.9083</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1.5299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.53E-2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.52E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.88460000000000005</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.5900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.87549999999999994</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.77910000000000001</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.52E-2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.54E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.66E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1.54E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1.6500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.0623</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.61E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.61E-2</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.74390000000000001</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.6400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.83550000000000002</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2.87E-2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.7399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.4702</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5.4999999999999997E-3</v>
-      </c>
       <c r="G23" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H23" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I23" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="1">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.4632000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H24" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D24" s="1">
-        <v>1.4823</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="I24" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.4702</v>
+      </c>
+      <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1.78E-2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1.83E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="G25" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H25" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D25" s="1">
-        <v>1.4574</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H25" s="1">
-        <v>1.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.4632000000000001</v>
+      <c r="B26" s="1">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>1E-4</v>
+        <v>1.4716</v>
       </c>
       <c r="F26" s="1">
-        <v>1.5E-3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="H26" s="1">
         <v>1.8100000000000002E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I26" s="1">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.4823</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.78E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.83E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.4945999999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.83E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.5397000000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="C27" s="2">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.4716</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1.77E-2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1.8200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.83E-2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.4945999999999999</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.23E-2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1.83E-2</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1.84E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1.5397000000000001</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1.8800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>63.684699999999999</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.79190000000000005</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>62.623199999999997</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>64.1755</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>73.826300000000003</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.0846</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>71.398399999999995</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>74.498500000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>75.197400000000002</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1.2881</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>72.601200000000006</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>75.995699999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>77.882900000000006</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.2806999999999999</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>76.1126</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>78.676699999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>78.529600000000002</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.98040000000000005</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34">
+      <c r="G34" s="2"/>
+      <c r="H34">
         <v>76.367800000000003</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>79.137200000000007</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>78.875299999999996</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1.121</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35">
+      <c r="G35" s="2"/>
+      <c r="H35">
         <v>77.127099999999999</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>79.570099999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2">
         <v>81.069599999999994</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1.7402</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36">
+      <c r="G36" s="2"/>
+      <c r="H36">
         <v>77.766599999999997</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>82.148200000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="6:6" hidden="1" x14ac:dyDescent="0.4">
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="6:6" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G56" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H70" xr:uid="{D5F1D108-8973-4557-9530-E4280FE896BF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="DNN-obs"/>
-        <filter val="GRU-obs"/>
-        <filter val="LSTM-obs"/>
-        <filter val="RF-obs"/>
-        <filter val="RNN-obs"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I70" xr:uid="{D5F1D108-8973-4557-9530-E4280FE896BF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I70">
+      <sortCondition ref="E1:E70"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
